--- a/help_desk/excel_atendido.xlsx
+++ b/help_desk/excel_atendido.xlsx
@@ -35,16 +35,16 @@
     <t>ATENCIÓN</t>
   </si>
   <si>
-    <t>400LI0010/0001/2018</t>
-  </si>
-  <si>
-    <t>2018-09-01</t>
-  </si>
-  <si>
-    <t>moni</t>
-  </si>
-  <si>
-    <t>COORDINADOR</t>
+    <t>400LI0010/0001/2017</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>ANTONIO MARTIN TORRES BALLESTEROS.</t>
+  </si>
+  <si>
+    <t>SECRETARIO TÉCNICO</t>
   </si>
   <si>
     <t>PRUEBA</t>
